--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% solar.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F4143-6000-4687-91D2-15E6F0777929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5115C7-AB56-492E-89CD-76F859511F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3234,13 +3234,13 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.88671875" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>

--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% solar.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/100% solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5115C7-AB56-492E-89CD-76F859511F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8611B5-EB16-4B49-BD11-BC6C04A7BAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3233,19 +3233,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3291,7 +3292,7 @@
         <v>251</v>
       </c>
       <c r="C2" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>255</v>
@@ -3423,7 +3424,7 @@
       </c>
       <c r="C10" s="9">
         <f>C2*323667.927332485/1000000</f>
-        <v>6.4733585466496999</v>
+        <v>6.1496906193172149</v>
       </c>
       <c r="D10" t="s">
         <v>227</v>
@@ -3465,7 +3466,7 @@
       </c>
       <c r="C12" s="9">
         <f>C2*20.5475/1000</f>
-        <v>0.41094999999999998</v>
+        <v>0.39040249999999999</v>
       </c>
       <c r="D12" t="s">
         <v>230</v>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="C13" s="9">
         <f>70.14*C2/1000</f>
-        <v>1.4028</v>
+        <v>1.3326600000000002</v>
       </c>
       <c r="D13" t="s">
         <v>230</v>
@@ -3507,7 +3508,7 @@
       </c>
       <c r="C14" s="9">
         <f>C2*3.507033</f>
-        <v>70.140659999999997</v>
+        <v>66.63362699999999</v>
       </c>
       <c r="D14" t="s">
         <v>230</v>
@@ -3609,7 +3610,7 @@
       </c>
       <c r="C20" s="13">
         <f>C14*C5</f>
-        <v>227.957145</v>
+        <v>216.55928774999995</v>
       </c>
       <c r="D20" t="s">
         <v>235</v>
@@ -3645,7 +3646,7 @@
       </c>
       <c r="C22" s="10">
         <f>C12*C5</f>
-        <v>1.3355874999999999</v>
+        <v>1.2688081250000001</v>
       </c>
       <c r="D22" t="s">
         <v>235</v>
@@ -3663,7 +3664,7 @@
       </c>
       <c r="C23" s="10">
         <f>C13*C5</f>
-        <v>4.5590999999999999</v>
+        <v>4.3311450000000002</v>
       </c>
       <c r="D23" t="s">
         <v>235</v>
@@ -3681,7 +3682,7 @@
       </c>
       <c r="C24" s="3">
         <f>-C10*C5*C4</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="D24" t="s">
         <v>235</v>
@@ -3739,7 +3740,7 @@
       </c>
       <c r="C2" s="3">
         <f>main!C20</f>
-        <v>227.957145</v>
+        <v>216.55928774999995</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3753,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3896,7 +3897,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4008,7 +4009,7 @@
       </c>
       <c r="G4" s="10">
         <f>main!C22</f>
-        <v>1.3355874999999999</v>
+        <v>1.2688081250000001</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>288</v>
@@ -4035,7 +4036,7 @@
       </c>
       <c r="G5" s="10">
         <f>main!C23</f>
-        <v>4.5590999999999999</v>
+        <v>4.3311450000000002</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>288</v>
@@ -4062,7 +4063,7 @@
       </c>
       <c r="G6" s="3">
         <f>main!C24</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>288</v>
